--- a/powerapp/data/dn_exluded_list.xlsx
+++ b/powerapp/data/dn_exluded_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Job\1_Operation\Network\System_Defences\UFLS_UVLS\2025_Review\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD354D1B-E187-40B0-81F2-0C05439129A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F16CA-6885-9445-9A9C-ECF3EA8C07E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{394D7C25-B5CE-4E25-A308-C4BD4050D992}"/>
+    <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="26380" xr2:uid="{394D7C25-B5CE-4E25-A308-C4BD4050D992}"/>
   </bookViews>
   <sheets>
     <sheet name="dn_excluded_list" sheetId="1" r:id="rId1"/>
@@ -308,13 +308,13 @@
     <t>tmid_33</t>
   </si>
   <si>
-    <t>local_trip_id</t>
-  </si>
-  <si>
     <t>pubb_22</t>
   </si>
   <si>
     <t>brkt_33</t>
+  </si>
+  <si>
+    <t>group_trip_id</t>
   </si>
 </sst>
 </file>
@@ -324,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,557 +749,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA411A1-2D5F-4545-BC17-BE4424C45C1E}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="48.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="17.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1">
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.5" customHeight="1">
+    </row>
+    <row r="23" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1">
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1">
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="3" customFormat="1">
+    </row>
+    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1">
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1">
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="10">
+        <v>45960</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="10">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="8">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="8">
+        <v>45960</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C49" s="8">
-        <v>45960</v>
       </c>
     </row>
   </sheetData>
